--- a/data/dummy_charged_hours.xlsx
+++ b/data/dummy_charged_hours.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/krzysztof_bogusz_gds_ey_com/Documents/Desktop/Project/AGI/dummy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{B92EEBC8-A52E-42C6-A0FC-138EB16AAFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CFF5435-90F1-4CB8-BA58-1556EA0C4803}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{B92EEBC8-A52E-42C6-A0FC-138EB16AAFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D0A3613-1F41-4D7B-884B-34874E071B74}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{54EC36D3-4349-4909-A9BC-16F05C186F67}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{54EC36D3-4349-4909-A9BC-16F05C186F67}"/>
   </bookViews>
   <sheets>
     <sheet name="dummy_charged_hours" sheetId="1" r:id="rId1"/>
@@ -28,19 +28,19 @@
     <t>emp1</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date Worked</t>
+    <t>KOD</t>
   </si>
   <si>
-    <t xml:space="preserve"> Hours Charged</t>
+    <t>Hours Charged</t>
   </si>
   <si>
-    <t xml:space="preserve"> Project Code</t>
+    <t>Date Worked</t>
   </si>
   <si>
-    <t xml:space="preserve"> Task Description</t>
+    <t>Project Code</t>
   </si>
   <si>
-    <t>KOD</t>
+    <t>Task Description</t>
   </si>
 </sst>
 </file>
@@ -913,7 +913,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,16 +929,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -955,7 +955,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
